--- a/PRIORIZACION CANNON RM 196/Programacion.xlsx
+++ b/PRIORIZACION CANNON RM 196/Programacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\PRIORIZACION CANNON RM 196\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F16597-A6AF-476F-8434-38713BCFAF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BFE84-B1F6-4414-9737-7C0087584606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{530C22F0-1721-47B5-8438-B8C9FF4D7ABC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Prioridad</t>
   </si>
@@ -122,12 +122,28 @@
     <t>Anexo II
 Modelo de Detalle de Proyecto de Inversión y Estudios de Preinversión</t>
   </si>
+  <si>
+    <t>RECUPERACION DE  ECOSISTEMA DE  PAJONAL DE PUNA HUMEDA, BOFEDAL Y MATORRAL ANDINO EN LA UNIDAD HIDROGRAFICA DE LOS RIOS PACHACHACA MEDIO Y SILCON DE 15 DISTRITOS DE  LAS PROVINCIAS DE ABANCAY, AYMARAES Y ANDAHUAYLAS DE  LA REGION DE APURIMAC</t>
+  </si>
+  <si>
+    <t>Ambiente</t>
+  </si>
+  <si>
+    <t>FINANCIAMIENTO REQUERIDO PARTA LA ELABORACIÓN DE ESTUDIOS DE PREINVERSIÓN 
+En el marco de la RESOLUCIÓN MINISTERIAL Nº 190-2020-EF/10</t>
+  </si>
+  <si>
+    <t>Monto total de inversion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,37 +194,20 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -222,8 +221,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -246,102 +275,114 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,10 +697,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,525 +715,657 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
-    <row r="2" spans="1:17" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K3" s="28">
         <v>2020</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28">
         <v>2021</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28">
         <v>2022</v>
       </c>
-      <c r="P2" s="16"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="10"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="17" t="s">
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="26"/>
     </row>
-    <row r="4" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23">
         <v>49265</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="18">
-        <v>1</v>
-      </c>
-      <c r="H4" s="20">
-        <f>J4*0.9</f>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <f>J5*0.9</f>
         <v>125563.5</v>
       </c>
-      <c r="I4" s="21">
-        <f>J4*0.1</f>
+      <c r="I5" s="6">
+        <f>J5*0.1</f>
         <v>13951.5</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J5" s="7">
         <v>139515</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21">
-        <f>J4*1</f>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <f>J5*1</f>
         <v>139515</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="2"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="32">
+        <v>6870000</v>
+      </c>
+      <c r="R5" s="33">
+        <f>J5/Q5</f>
+        <v>2.0307860262008735E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="6" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
         <v>108798</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20">
-        <f>J5*0.9</f>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <f>J6*0.9</f>
         <v>107053.2</v>
       </c>
-      <c r="I5" s="21">
-        <f>J5*0.1</f>
+      <c r="I6" s="6">
+        <f>J6*0.1</f>
         <v>11894.800000000001</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J6" s="7">
         <v>118948</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21">
-        <f>J5*1</f>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
+        <f>J6*1</f>
         <v>118948</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="2"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="32">
+        <v>9220000</v>
+      </c>
+      <c r="R6" s="33">
+        <f t="shared" ref="R6:R14" si="0">J6/Q6</f>
+        <v>1.2901084598698482E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
         <v>107708</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20">
-        <f>J6*0.9</f>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <f>J7*0.9</f>
         <v>198000</v>
       </c>
-      <c r="I6" s="21">
-        <f>J6*0.1</f>
+      <c r="I7" s="6">
+        <f>J7*0.1</f>
         <v>22000</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J7" s="7">
         <v>220000</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21">
-        <f t="shared" ref="L6:L11" si="0">J6*1</f>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <f t="shared" ref="L7:L12" si="1">J7*1</f>
         <v>220000</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="32">
+        <v>26090000</v>
+      </c>
+      <c r="R7" s="33">
+        <f t="shared" si="0"/>
+        <v>8.4323495592180907E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17">
         <v>45083</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20">
-        <f>J7*0.9</f>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <f>J8*0.9</f>
         <v>198036</v>
       </c>
-      <c r="I7" s="21">
-        <f>J7*0.1</f>
+      <c r="I8" s="6">
+        <f>J8*0.1</f>
         <v>22004</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J8" s="7">
         <v>220040</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>220040</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="32">
+        <v>32545000</v>
+      </c>
+      <c r="R8" s="33">
         <f t="shared" si="0"/>
-        <v>220040</v>
-      </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+        <v>6.7611000153633433E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>49555</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>49343</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20">
-        <f>J8*0.9</f>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <f>J9*0.9</f>
         <v>122400</v>
       </c>
-      <c r="I8" s="21">
-        <f>J8*0.1</f>
+      <c r="I9" s="6">
+        <f>J9*0.1</f>
         <v>13600</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J9" s="7">
         <v>136000</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>136000</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="32">
+        <v>170154854.62</v>
+      </c>
+      <c r="R9" s="33">
         <f t="shared" si="0"/>
-        <v>136000</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+        <v>7.9927193557729126E-4</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="10" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
         <v>109172</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" ref="H9:H12" si="1">J9*0.9</f>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" ref="H10:H14" si="2">J10*0.9</f>
         <v>190502.1</v>
       </c>
-      <c r="I9" s="21">
-        <f t="shared" ref="I9:I12" si="2">J9*0.1</f>
+      <c r="I10" s="6">
+        <f t="shared" ref="I10:I14" si="3">J10*0.1</f>
         <v>21166.9</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J10" s="7">
         <v>211669</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21">
-        <f>J9*0.4</f>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <f>J10*0.4</f>
         <v>84667.6</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
-        <f>J9*0.6</f>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <f>J10*0.6</f>
         <v>127001.4</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="32">
+        <v>211669342.75999999</v>
+      </c>
+      <c r="R10" s="33">
+        <f t="shared" si="0"/>
+        <v>9.999983806818903E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
         <v>49378</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>20146425.75</v>
+      </c>
+      <c r="I11" s="6">
+        <f>J11*0.1</f>
+        <v>2238491.75</v>
+      </c>
+      <c r="J11" s="7">
+        <v>22384917.5</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <f>J11*0.3</f>
+        <v>6715475.25</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <f>J11*0.7</f>
+        <v>15669442.249999998</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="32">
+        <v>2238491750</v>
+      </c>
+      <c r="R11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>49403</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>99191.81700000001</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="3"/>
+        <v>11021.313000000002</v>
+      </c>
+      <c r="J12" s="9">
+        <v>110213.13</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6">
         <f t="shared" si="1"/>
-        <v>20146425.75</v>
-      </c>
-      <c r="I10" s="21">
-        <f>J10*0.1</f>
-        <v>2238491.75</v>
-      </c>
-      <c r="J10" s="22">
-        <v>22384917.5</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21">
-        <f>J10*0.3</f>
-        <v>6715475.25</v>
-      </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21">
-        <f>J10*0.7</f>
-        <v>15669442.249999998</v>
-      </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="21"/>
+        <v>110213.13</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="32">
+        <v>6198187.5</v>
+      </c>
+      <c r="R12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.7781509513869982E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>49403</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="13" t="s">
+    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20">
+        <v>49396</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="1"/>
-        <v>261000</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="2"/>
-        <v>29000</v>
-      </c>
-      <c r="J11" s="24">
-        <v>290000</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="21">
+        <v>832500</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>92500</v>
+      </c>
+      <c r="J13" s="9">
+        <v>925000</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6">
+        <f>J13*0.6</f>
+        <v>555000</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
+        <f>J13*0.4</f>
+        <v>370000</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="32">
+        <v>68648370</v>
+      </c>
+      <c r="R13" s="33">
         <f t="shared" si="0"/>
-        <v>290000</v>
-      </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+        <v>1.3474464142411539E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>49396</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="1"/>
-        <v>832500</v>
-      </c>
-      <c r="I12" s="21">
+    <row r="14" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>107115</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="2"/>
-        <v>92500</v>
-      </c>
-      <c r="J12" s="24">
-        <v>925000</v>
-      </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="21">
-        <f>J12*0.6</f>
-        <v>555000</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21">
-        <f>J12*0.4</f>
-        <v>370000</v>
-      </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+        <v>180000</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="J14" s="9">
+        <v>200000</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="6">
+        <f>J14*1</f>
+        <v>200000</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="32">
+        <v>28728000</v>
+      </c>
+      <c r="R14" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9618490671122246E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="16">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/PRIORIZACION CANNON RM 196/Programacion.xlsx
+++ b/PRIORIZACION CANNON RM 196/Programacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\PRIORIZACION CANNON RM 196\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63BFE84-B1F6-4414-9737-7C0087584606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B92A2C-7B86-4FAD-B66D-441D2FBDDC02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{530C22F0-1721-47B5-8438-B8C9FF4D7ABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530C22F0-1721-47B5-8438-B8C9FF4D7ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Prioridad</t>
   </si>
@@ -135,13 +135,16 @@
   <si>
     <t>Monto total de inversion</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -202,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,38 +224,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,88 +248,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,20 +311,65 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -697,10 +689,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,644 +704,694 @@
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.85546875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>2020</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28">
+      <c r="L3" s="27"/>
+      <c r="M3" s="27">
         <v>2021</v>
       </c>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27">
         <v>2022</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28" t="s">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="10"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="2" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="26"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
         <v>49265</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
         <f>J5*0.9</f>
         <v>125563.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="19">
         <f>J5*0.1</f>
         <v>13951.5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="20">
         <v>139515</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19">
         <f>J5*1</f>
         <v>139515</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="32">
+      <c r="M5" s="19"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="4">
         <v>6870000</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="5">
         <f>J5/Q5</f>
         <v>2.0307860262008735E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
         <v>108798</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
         <f>J6*0.9</f>
         <v>107053.2</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="19">
         <f>J6*0.1</f>
         <v>11894.800000000001</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="20">
         <v>118948</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
         <f>J6*1</f>
         <v>118948</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="32">
+      <c r="M6" s="19"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="4">
         <v>9220000</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="5">
         <f t="shared" ref="R6:R14" si="0">J6/Q6</f>
         <v>1.2901084598698482E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
         <v>107708</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="16">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
         <f>J7*0.9</f>
         <v>198000</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="19">
         <f>J7*0.1</f>
         <v>22000</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="20">
         <v>220000</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19">
         <f t="shared" ref="L7:L12" si="1">J7*1</f>
         <v>220000</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="32">
+      <c r="M7" s="19"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="4">
         <v>26090000</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="5">
         <f t="shared" si="0"/>
         <v>8.4323495592180907E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22">
         <v>45083</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
         <f>J8*0.9</f>
         <v>198036</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="19">
         <f>J8*0.1</f>
         <v>22004</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="20">
         <v>220040</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
         <f t="shared" si="1"/>
         <v>220040</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="32">
+      <c r="M8" s="19"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="4">
         <v>32545000</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="5">
         <f t="shared" si="0"/>
         <v>6.7611000153633433E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="22">
         <v>49343</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
         <f>J9*0.9</f>
         <v>122400</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="19">
         <f>J9*0.1</f>
         <v>13600</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="20">
         <v>136000</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
         <f t="shared" si="1"/>
         <v>136000</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="32">
+      <c r="M9" s="19"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="4">
         <v>170154854.62</v>
       </c>
-      <c r="R9" s="33">
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
         <v>7.9927193557729126E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22">
         <v>109172</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
         <f t="shared" ref="H10:H14" si="2">J10*0.9</f>
         <v>190502.1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="19">
         <f t="shared" ref="I10:I14" si="3">J10*0.1</f>
         <v>21166.9</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="20">
         <v>211669</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19">
         <f>J10*0.4</f>
         <v>84667.6</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19">
         <f>J10*0.6</f>
         <v>127001.4</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="32">
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="4">
         <v>211669342.75999999</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="5">
         <f t="shared" si="0"/>
         <v>9.999983806818903E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22">
         <v>49378</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
         <f t="shared" si="2"/>
         <v>20146425.75</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="19">
         <f>J11*0.1</f>
         <v>2238491.75</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="20">
         <v>22384917.5</v>
       </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19">
         <f>J11*0.3</f>
         <v>6715475.25</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
+      <c r="M11" s="19"/>
+      <c r="N11" s="19">
         <f>J11*0.7</f>
         <v>15669442.249999998</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="32">
+      <c r="O11" s="21"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="4">
         <v>2238491750</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="5">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
         <v>49403</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="16">
         <v>2</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
         <f t="shared" si="2"/>
         <v>99191.81700000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="19">
         <f t="shared" si="3"/>
         <v>11021.313000000002</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="23">
         <v>110213.13</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6">
+      <c r="K12" s="21"/>
+      <c r="L12" s="19">
         <f t="shared" si="1"/>
         <v>110213.13</v>
       </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="32">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="4">
         <v>6198187.5</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="5">
         <f t="shared" si="0"/>
         <v>1.7781509513869982E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22">
         <v>49396</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="16">
         <v>2</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
         <f t="shared" si="2"/>
         <v>832500</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="19">
         <f t="shared" si="3"/>
         <v>92500</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="23">
         <v>925000</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="6">
+      <c r="K13" s="21"/>
+      <c r="L13" s="19">
         <f>J13*0.6</f>
         <v>555000</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19">
         <f>J13*0.4</f>
         <v>370000</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="32">
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="4">
         <v>68648370</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="5">
         <f t="shared" si="0"/>
         <v>1.3474464142411539E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22">
         <v>107115</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="24">
         <v>3</v>
       </c>
-      <c r="G14" s="26">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="2"/>
         <v>180000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="18">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="23">
         <v>200000</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="6">
+      <c r="K14" s="25"/>
+      <c r="L14" s="19">
         <f>J14*1</f>
         <v>200000</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="32">
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="4">
         <v>28728000</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="5">
         <f t="shared" si="0"/>
         <v>6.9618490671122246E-3</v>
       </c>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13">
+        <f>SUM(J5:J14)</f>
+        <v>24666302.629999999</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" ref="K15:R15" si="4">SUM(K5:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="4"/>
+        <v>8499858.9800000004</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <f t="shared" si="4"/>
+        <v>16166443.649999999</v>
+      </c>
+      <c r="O15" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>2798615504.8800001</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="4"/>
+        <v>9.8419487474941586E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A15:I15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="C3:C4"/>
